--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="10001" sheetId="5" r:id="rId1"/>
+    <sheet name="技能分析表" sheetId="6" r:id="rId2"/>
+    <sheet name="技能信息收集" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +54,396 @@
   <si>
     <t>200001,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续性发射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外buffer效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞭子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狙击枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散弹枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些本质上的东西是不能乱的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件的难度原来是阶梯式的，每两级之间有一个不同点。但难度在于增加了随机性，导致整体上的较大差别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星云锁链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮吼功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排云掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三分归元气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹指神通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙十八掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天霜拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么我会想到，天龙八部，为什么想要里面的招式，之前有一款游戏已经这么做了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这说明了什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这容易确定游戏的风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这其实是一套模板，从现实中提取你可以理解的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它包含着类型的区分，和成长的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙十八掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六脉神剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风扫叶腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧波掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹指神通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劈空掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见龙在田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙在天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亢龙有悔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙战于野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双龙取水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜龙忽用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突如其来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震惊百里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉女素心剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪迹天涯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花前月下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虹经天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抚琴按箫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯然销毁掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独孤九剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破气式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破箭式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破掌式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破索式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破鞭式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破枪式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破刀式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破剑式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡北斗阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三花聚顶掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水行云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披云带月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻云覆雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排山倒海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌云蔽日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重云深锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕天排云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云海波涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如来神掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光初现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛抱怀容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迎佛西天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛光普照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛法无边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天佛降世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛动山河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万佛朝宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天霜拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追命十一退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打狗棒法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下无狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级</t>
+  </si>
+  <si>
+    <t>4级</t>
+  </si>
+  <si>
+    <t>5级</t>
+  </si>
+  <si>
+    <t>6级</t>
+  </si>
+  <si>
+    <t>7级</t>
+  </si>
+  <si>
+    <t>8级</t>
   </si>
 </sst>
 </file>
@@ -75,12 +467,186 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,8 +663,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,4 +1935,562 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="29"/>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="29"/>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="29"/>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="7"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="29"/>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="29"/>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="22"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="29"/>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F15" s="29"/>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D17" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>时间事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,46 @@
   </si>
   <si>
     <t>没用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8次/秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640像素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13个怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时出现的怪物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,9 +136,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,23 +480,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="6" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="8.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -472,8 +515,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -489,56 +535,190 @@
       <c r="F2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>200003</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>200002</v>
+        <v>200004</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>200003</v>
+        <v>200007</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>200005</v>
+      </c>
+      <c r="E6">
         <v>3000</v>
       </c>
-      <c r="F5">
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10001</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="D7">
+        <v>200006</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
         <v>-1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10001</v>
+      </c>
+      <c r="B8">
+        <v>360</v>
+      </c>
+      <c r="D8">
+        <v>200008</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M16">
+        <v>640</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="N17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="N18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="O19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,7 +496,7 @@
     <col min="15" max="15" width="11.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -519,7 +519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -539,7 +539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -562,7 +562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -573,19 +573,19 @@
         <v>200004</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
         <v>30</v>
       </c>
       <c r="I4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -593,7 +593,7 @@
         <v>180</v>
       </c>
       <c r="D5">
-        <v>200007</v>
+        <v>200012</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10001</v>
       </c>
@@ -622,13 +622,13 @@
         <v>3000</v>
       </c>
       <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10001</v>
       </c>
@@ -647,77 +647,173 @@
       <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10001</v>
       </c>
       <c r="B8">
+        <v>350</v>
+      </c>
+      <c r="D8">
+        <v>200007</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10001</v>
+      </c>
+      <c r="B9">
         <v>360</v>
       </c>
-      <c r="D8">
+      <c r="D9">
+        <v>200013</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10001</v>
+      </c>
+      <c r="B10">
+        <v>480</v>
+      </c>
+      <c r="D10">
         <v>200008</v>
       </c>
-      <c r="E8">
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10001</v>
+      </c>
+      <c r="B11">
+        <v>540</v>
+      </c>
+      <c r="D11">
+        <v>200009</v>
+      </c>
+      <c r="E11">
+        <v>1500</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10001</v>
+      </c>
+      <c r="B12">
+        <v>600</v>
+      </c>
+      <c r="D12">
+        <v>200010</v>
+      </c>
+      <c r="E12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10001</v>
+      </c>
+      <c r="B13">
+        <v>660</v>
+      </c>
+      <c r="D13">
+        <v>200014</v>
+      </c>
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="O15" s="1" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="O20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="M16">
+    <row r="21" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="M21">
         <v>640</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O21" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="N17" s="1" t="s">
+    <row r="22" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="N22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="N18" s="1" t="s">
+    <row r="23" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="N23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="O19" s="1" t="s">
+    <row r="24" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="O24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="K20" t="s">
+    <row r="25" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="K25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="J25" t="s">
+    <row r="30" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J30" t="s">
         <v>13</v>
       </c>
-      <c r="K25">
+      <c r="K30">
         <v>13</v>
       </c>
     </row>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,22 +544,22 @@
         <v>10001</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>200003</v>
+        <v>200012</v>
       </c>
       <c r="E3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -567,22 +567,22 @@
         <v>10001</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -590,19 +590,19 @@
         <v>10001</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D5">
-        <v>200012</v>
+        <v>200004</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>35</v>
@@ -613,19 +613,22 @@
         <v>10001</v>
       </c>
       <c r="B6">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D6">
-        <v>200005</v>
+        <v>200012</v>
       </c>
       <c r="E6">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -633,19 +636,19 @@
         <v>10001</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D7">
-        <v>200006</v>
+        <v>200005</v>
       </c>
       <c r="E7">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -653,16 +656,19 @@
         <v>10001</v>
       </c>
       <c r="B8">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D8">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F8">
-        <v>150</v>
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -670,16 +676,16 @@
         <v>10001</v>
       </c>
       <c r="B9">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D9">
-        <v>200013</v>
+        <v>200007</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -687,19 +693,16 @@
         <v>10001</v>
       </c>
       <c r="B10">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="D10">
-        <v>200008</v>
+        <v>200013</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -707,19 +710,19 @@
         <v>10001</v>
       </c>
       <c r="B11">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="D11">
-        <v>200009</v>
+        <v>200008</v>
       </c>
       <c r="E11">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
       <c r="H11" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -727,19 +730,19 @@
         <v>10001</v>
       </c>
       <c r="B12">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="D12">
-        <v>200010</v>
+        <v>200009</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F12">
         <v>-1</v>
       </c>
       <c r="H12" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -747,73 +750,93 @@
         <v>10001</v>
       </c>
       <c r="B13">
+        <v>600</v>
+      </c>
+      <c r="D13">
+        <v>200010</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10001</v>
+      </c>
+      <c r="B14">
         <v>660</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>200014</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I14">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I15">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="O20" s="1" t="s">
+    <row r="21" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="O21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="M21">
+    <row r="22" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="M22">
         <v>640</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O22" s="1">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="N22" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:15" x14ac:dyDescent="0.15">
       <c r="N23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="N24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="O24" s="1" t="s">
+    <row r="25" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="O25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="K25" t="s">
+    <row r="26" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="K26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="J30" t="s">
+    <row r="31" spans="10:15" x14ac:dyDescent="0.15">
+      <c r="J31" t="s">
         <v>13</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>13</v>
       </c>
     </row>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>时间事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没用到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,11 +81,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13个怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同时出现的怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出的总血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害总值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,23 +484,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="7" width="13.75" customWidth="1"/>
+    <col min="3" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="8.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="14.375" customWidth="1"/>
+    <col min="16" max="16" width="8.25" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -504,79 +508,82 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>200002</v>
+      </c>
       <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10001</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
         <v>200002</v>
       </c>
-      <c r="E2">
-        <v>1500</v>
-      </c>
-      <c r="F2">
+      <c r="D3">
+        <v>5000</v>
+      </c>
+      <c r="E3">
         <v>-1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>10001</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>200012</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
+      <c r="C4">
+        <v>200003</v>
+      </c>
       <c r="D4">
-        <v>200003</v>
+        <v>2000</v>
       </c>
       <c r="E4">
-        <v>2000</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>10</v>
@@ -585,258 +592,325 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>200003</v>
       </c>
       <c r="D5">
+        <v>5000</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6">
+        <v>240</v>
+      </c>
+      <c r="C6">
         <v>200004</v>
       </c>
-      <c r="E5">
+      <c r="D6">
         <v>1000</v>
       </c>
-      <c r="F5">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>30</v>
-      </c>
-      <c r="I5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>10001</v>
-      </c>
-      <c r="B6">
-        <v>180</v>
-      </c>
-      <c r="D6">
-        <v>200012</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
       </c>
       <c r="I6">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10001</v>
       </c>
       <c r="B7">
-        <v>240</v>
+        <v>270</v>
+      </c>
+      <c r="C7">
+        <v>200004</v>
       </c>
       <c r="D7">
+        <v>5000</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10001</v>
+      </c>
+      <c r="B8">
+        <v>360</v>
+      </c>
+      <c r="C8">
+        <v>200012</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10001</v>
+      </c>
+      <c r="B9">
+        <v>480</v>
+      </c>
+      <c r="C9">
         <v>200005</v>
       </c>
-      <c r="E7">
+      <c r="D9">
         <v>3000</v>
       </c>
-      <c r="F7">
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>10001</v>
+      </c>
+      <c r="B10">
+        <v>540</v>
+      </c>
+      <c r="C10">
+        <v>200005</v>
+      </c>
+      <c r="D10">
+        <v>3000</v>
+      </c>
+      <c r="E10">
         <v>-1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>10001</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="D8">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10001</v>
+      </c>
+      <c r="B11">
+        <v>600</v>
+      </c>
+      <c r="C11">
         <v>200006</v>
       </c>
-      <c r="E8">
+      <c r="D11">
         <v>2000</v>
       </c>
-      <c r="F8">
+      <c r="E11">
         <v>-1</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>10001</v>
-      </c>
-      <c r="B9">
-        <v>350</v>
-      </c>
-      <c r="D9">
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10001</v>
+      </c>
+      <c r="B12">
+        <v>720</v>
+      </c>
+      <c r="C12">
         <v>200007</v>
       </c>
-      <c r="E9">
+      <c r="D12">
         <v>500</v>
       </c>
-      <c r="F9">
+      <c r="E12">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>10001</v>
-      </c>
-      <c r="B10">
-        <v>360</v>
-      </c>
-      <c r="D10">
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10001</v>
+      </c>
+      <c r="B13">
+        <v>840</v>
+      </c>
+      <c r="C13">
         <v>200013</v>
       </c>
-      <c r="E10">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10001</v>
-      </c>
-      <c r="B11">
-        <v>480</v>
-      </c>
-      <c r="D11">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>10001</v>
+      </c>
+      <c r="B14">
+        <v>960</v>
+      </c>
+      <c r="C14">
         <v>200008</v>
       </c>
-      <c r="E11">
+      <c r="D14">
         <v>1000</v>
       </c>
-      <c r="F11">
+      <c r="E14">
         <v>-1</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H14" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10001</v>
-      </c>
-      <c r="B12">
-        <v>540</v>
-      </c>
-      <c r="D12">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>10001</v>
+      </c>
+      <c r="B15">
+        <v>1080</v>
+      </c>
+      <c r="C15">
         <v>200009</v>
       </c>
-      <c r="E12">
-        <v>1500</v>
-      </c>
-      <c r="F12">
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
         <v>-1</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>10001</v>
+      </c>
+      <c r="B16">
+        <v>1200</v>
+      </c>
+      <c r="C16">
+        <v>200010</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>10001</v>
+      </c>
+      <c r="B17">
+        <v>1320</v>
+      </c>
+      <c r="C17">
+        <v>200014</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O25">
+        <v>640</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="P27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>10001</v>
-      </c>
-      <c r="B13">
-        <v>600</v>
-      </c>
-      <c r="D13">
-        <v>200010</v>
-      </c>
-      <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13">
-        <v>-1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>10001</v>
-      </c>
-      <c r="B14">
-        <v>660</v>
-      </c>
-      <c r="D14">
-        <v>200014</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I15">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="O21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="M22">
-        <v>640</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="N23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="N24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="O25" s="1" t="s">
+    <row r="34" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="10:15" x14ac:dyDescent="0.15">
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31">
+      <c r="M34">
         <v>13</v>
       </c>
     </row>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -118,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,11 +146,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,7 +549,7 @@
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H2" s="1">
         <v>10</v>
@@ -551,22 +563,22 @@
         <v>10001</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3">
-        <v>200002</v>
+        <v>200003</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>10</v>
       </c>
-      <c r="J3">
-        <v>130</v>
+      <c r="I3">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -574,19 +586,19 @@
         <v>10001</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>200003</v>
       </c>
       <c r="D4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>23</v>
@@ -597,22 +609,22 @@
         <v>10001</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C5">
-        <v>200003</v>
+        <v>200012</v>
       </c>
       <c r="D5">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -649,7 +661,7 @@
         <v>200004</v>
       </c>
       <c r="D7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -666,22 +678,19 @@
         <v>10001</v>
       </c>
       <c r="B8">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="C8">
-        <v>200012</v>
+        <v>200005</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -689,7 +698,7 @@
         <v>10001</v>
       </c>
       <c r="B9">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="C9">
         <v>200005</v>
@@ -698,7 +707,7 @@
         <v>3000</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="1">
         <v>7</v>
@@ -709,19 +718,22 @@
         <v>10001</v>
       </c>
       <c r="B10">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="C10">
-        <v>200005</v>
+        <v>200006</v>
       </c>
       <c r="D10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
       <c r="H10" s="1">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -729,22 +741,19 @@
         <v>10001</v>
       </c>
       <c r="B11">
-        <v>600</v>
+        <v>720</v>
       </c>
       <c r="C11">
-        <v>200006</v>
+        <v>200007</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -752,19 +761,16 @@
         <v>10001</v>
       </c>
       <c r="B12">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="C12">
-        <v>200007</v>
+        <v>200013</v>
       </c>
       <c r="D12">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>150</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -772,16 +778,19 @@
         <v>10001</v>
       </c>
       <c r="B13">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="C13">
-        <v>200013</v>
+        <v>200008</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -789,19 +798,19 @@
         <v>10001</v>
       </c>
       <c r="B14">
-        <v>960</v>
+        <v>1080</v>
       </c>
       <c r="C14">
-        <v>200008</v>
+        <v>200009</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E14">
         <v>-1</v>
       </c>
       <c r="H14" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -809,10 +818,10 @@
         <v>10001</v>
       </c>
       <c r="B15">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="C15">
-        <v>200009</v>
+        <v>200010</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -829,88 +838,118 @@
         <v>10001</v>
       </c>
       <c r="B16">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="C16">
-        <v>200010</v>
+        <v>200014</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="O24" s="2">
+        <v>640</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>21</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="O25" s="2"/>
+      <c r="P25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="O26" s="2"/>
+      <c r="P26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>10001</v>
-      </c>
-      <c r="B17">
-        <v>1320</v>
-      </c>
-      <c r="C17">
-        <v>200014</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q24" s="1" t="s">
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="P29" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="O25">
-        <v>640</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="P26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="P27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="Q28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="M29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L34" t="s">
+    <row r="30" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="P30" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="13:18" x14ac:dyDescent="0.15">
+      <c r="P31" s="1">
+        <f>640/48</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.15">
+      <c r="L33" t="s">
         <v>12</v>
       </c>
-      <c r="M34">
+      <c r="M33">
         <v>13</v>
       </c>
     </row>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>时间事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,27 +73,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20/1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同时出现的怪物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>总血量</t>
   </si>
   <si>
-    <t>产出的总血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>怪物个数</t>
   </si>
   <si>
-    <t>伤害总值</t>
+    <t>一个怪物血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +154,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,23 +495,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="11" width="14.375" customWidth="1"/>
-    <col min="16" max="16" width="8.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="6.625" customWidth="1"/>
+    <col min="9" max="9" width="8.125" customWidth="1"/>
+    <col min="10" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="13" width="14.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -528,37 +531,51 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>200002</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <f>_xlfn.FLOOR.MATH((60/(I2*1.5))*1000)</f>
+        <v>2500</v>
       </c>
       <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>332</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <f>_xlfn.FLOOR.MATH(H2/(I2*2))</f>
         <v>10</v>
       </c>
-      <c r="J2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -569,42 +586,58 @@
         <v>200003</v>
       </c>
       <c r="D3">
-        <v>2000</v>
+        <f t="shared" ref="D3:D25" si="0">_xlfn.FLOOR.MATH((60/(I3*1.5))*1000)</f>
+        <v>2352</v>
       </c>
       <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>637</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">_xlfn.FLOOR.MATH(H3/(I3*2))</f>
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>200003</v>
       </c>
       <c r="D4">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>2105</v>
       </c>
       <c r="E4">
         <v>-1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
+        <v>1144</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L4" s="1">
         <v>8</v>
       </c>
-      <c r="I4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -615,19 +648,27 @@
         <v>200012</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1904</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
+        <v>1755</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10001</v>
       </c>
@@ -638,319 +679,2260 @@
         <v>200004</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>1818</v>
       </c>
       <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>2375</v>
+      </c>
+      <c r="I6">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="L6" s="1">
         <v>30</v>
       </c>
-      <c r="I6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10001</v>
       </c>
       <c r="B7">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C7">
         <v>200004</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1666</v>
       </c>
       <c r="E7">
         <v>-1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
+        <v>3036</v>
+      </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="L7" s="1">
         <v>30</v>
       </c>
-      <c r="I7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>10001</v>
       </c>
       <c r="B8">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="C8">
         <v>200005</v>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>1600</v>
       </c>
       <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>3796</v>
+      </c>
+      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="L8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10001</v>
       </c>
       <c r="B9">
-        <v>540</v>
+        <v>420</v>
       </c>
       <c r="C9">
         <v>200005</v>
       </c>
       <c r="D9">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>1481</v>
       </c>
       <c r="E9">
         <v>-1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
+        <v>4611</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="L9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10001</v>
       </c>
       <c r="B10">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="C10">
         <v>200006</v>
       </c>
       <c r="D10">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1379</v>
       </c>
       <c r="E10">
         <v>-1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
+        <v>5676</v>
+      </c>
+      <c r="I10">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="L10" s="1">
         <v>10</v>
       </c>
-      <c r="M10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10001</v>
       </c>
       <c r="B11">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="C11">
         <v>200007</v>
       </c>
       <c r="D11">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>1333</v>
       </c>
       <c r="E11">
-        <v>150</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>6480</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10001</v>
       </c>
       <c r="B12">
-        <v>840</v>
+        <v>600</v>
       </c>
       <c r="C12">
         <v>200013</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1250</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <v>7527</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10001</v>
       </c>
       <c r="B13">
-        <v>960</v>
+        <v>660</v>
       </c>
       <c r="C13">
         <v>200008</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>1176</v>
       </c>
       <c r="E13">
         <v>-1</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
+        <v>8858</v>
+      </c>
+      <c r="I13">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="L13" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10001</v>
       </c>
       <c r="B14">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="C14">
         <v>200009</v>
       </c>
       <c r="D14">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1142</v>
       </c>
       <c r="E14">
         <v>-1</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
+        <v>9844</v>
+      </c>
+      <c r="I14">
+        <v>35</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="L14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10001</v>
       </c>
       <c r="B15">
-        <v>1200</v>
+        <v>780</v>
       </c>
       <c r="C15">
         <v>200010</v>
       </c>
       <c r="D15">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>1081</v>
       </c>
       <c r="E15">
         <v>-1</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
+        <v>11123</v>
+      </c>
+      <c r="I15">
+        <v>37</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="L15" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10001</v>
       </c>
       <c r="B16">
-        <v>1320</v>
+        <v>840</v>
       </c>
       <c r="C16">
         <v>200014</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1052</v>
       </c>
       <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <v>12220</v>
+      </c>
+      <c r="I16">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="L16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="O20" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>10001</v>
+      </c>
+      <c r="B17">
+        <v>900</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H17">
+        <v>13640</v>
+      </c>
+      <c r="I17">
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>10001</v>
+      </c>
+      <c r="B18">
+        <v>960</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>952</v>
+      </c>
+      <c r="H18">
+        <v>14877</v>
+      </c>
+      <c r="I18">
+        <v>42</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>10001</v>
+      </c>
+      <c r="B19">
+        <v>1020</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="H19">
+        <v>16140</v>
+      </c>
+      <c r="I19">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>10001</v>
+      </c>
+      <c r="B20">
+        <v>1080</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>888</v>
+      </c>
+      <c r="H20">
+        <v>17766</v>
+      </c>
+      <c r="I20">
+        <v>45</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="O21" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>10001</v>
+      </c>
+      <c r="B21">
+        <v>1140</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>851</v>
+      </c>
+      <c r="H21">
+        <v>19175</v>
+      </c>
+      <c r="I21">
+        <v>47</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="O22" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>10001</v>
+      </c>
+      <c r="B22">
+        <v>1200</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>833</v>
+      </c>
+      <c r="H22">
+        <v>20604</v>
+      </c>
+      <c r="I22">
+        <v>48</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3" t="s">
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10001</v>
+      </c>
+      <c r="B23">
+        <v>1260</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H23">
+        <v>22120</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="O24" s="2">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>10001</v>
+      </c>
+      <c r="B24">
+        <v>1320</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>784</v>
+      </c>
+      <c r="H24">
+        <v>23652</v>
+      </c>
+      <c r="I24">
+        <v>51</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="N24" s="2">
         <v>640</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="P24" s="3">
         <v>21</v>
       </c>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="O25" s="2"/>
-      <c r="P25" s="3" t="s">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10001</v>
+      </c>
+      <c r="B25">
+        <v>1380</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>754</v>
+      </c>
+      <c r="H25">
+        <v>25275</v>
+      </c>
+      <c r="I25">
+        <v>53</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="O26" s="2"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>10001</v>
+      </c>
+      <c r="B26">
+        <v>1440</v>
+      </c>
+      <c r="D26">
+        <f>_xlfn.FLOOR.MATH((60/(I26*3))*1000)</f>
+        <v>363</v>
+      </c>
+      <c r="H26">
+        <v>26950</v>
+      </c>
+      <c r="I26">
+        <v>55</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="P26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3" t="s">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>10001</v>
+      </c>
+      <c r="B27">
+        <v>1500</v>
+      </c>
+      <c r="D27">
+        <f>_xlfn.FLOOR.MATH((60/(I27*3))*1000)</f>
+        <v>357</v>
+      </c>
+      <c r="H27">
+        <v>28282</v>
+      </c>
+      <c r="I27">
+        <v>56</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="M28" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>10001</v>
+      </c>
+      <c r="B28">
+        <v>1560</v>
+      </c>
+      <c r="D28">
+        <f>_xlfn.FLOOR.MATH((60/(I28*3))*1000)</f>
+        <v>344</v>
+      </c>
+      <c r="H28">
+        <v>30051</v>
+      </c>
+      <c r="I28">
+        <v>58</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="P29" s="1">
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>10001</v>
+      </c>
+      <c r="B29">
+        <v>1620</v>
+      </c>
+      <c r="D29">
+        <f>_xlfn.FLOOR.MATH((60/(I29*3))*1000)</f>
+        <v>338</v>
+      </c>
+      <c r="H29">
+        <v>31457</v>
+      </c>
+      <c r="I29">
+        <v>59</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="O29" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="P30" s="1">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>10001</v>
+      </c>
+      <c r="B30">
+        <v>1680</v>
+      </c>
+      <c r="D30">
+        <f>_xlfn.FLOOR.MATH((60/(I30*3))*1000)</f>
+        <v>327</v>
+      </c>
+      <c r="H30">
+        <v>33320</v>
+      </c>
+      <c r="I30">
+        <v>61</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="O30" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="13:18" x14ac:dyDescent="0.15">
-      <c r="P31" s="1">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>10001</v>
+      </c>
+      <c r="B31">
+        <v>1740</v>
+      </c>
+      <c r="D31">
+        <f>_xlfn.FLOOR.MATH((60/(I31*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H31">
+        <v>33930</v>
+      </c>
+      <c r="I31">
+        <v>60</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="O31" s="1">
         <f>640/48</f>
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.15">
-      <c r="L33" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33">
-        <v>13</v>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>10001</v>
+      </c>
+      <c r="B32">
+        <v>1800</v>
+      </c>
+      <c r="D32">
+        <f>_xlfn.FLOOR.MATH((60/(I32*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H32">
+        <v>34977</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>10001</v>
+      </c>
+      <c r="B33">
+        <v>1860</v>
+      </c>
+      <c r="D33">
+        <f>_xlfn.FLOOR.MATH((60/(I33*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H33">
+        <v>36036</v>
+      </c>
+      <c r="I33">
+        <v>60</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>10001</v>
+      </c>
+      <c r="B34">
+        <v>1920</v>
+      </c>
+      <c r="D34">
+        <f>_xlfn.FLOOR.MATH((60/(I34*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H34">
+        <v>36708</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>10001</v>
+      </c>
+      <c r="B35">
+        <v>1980</v>
+      </c>
+      <c r="D35">
+        <f>_xlfn.FLOOR.MATH((60/(I35*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H35">
+        <v>37788</v>
+      </c>
+      <c r="I35">
+        <v>60</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>10001</v>
+      </c>
+      <c r="B36">
+        <v>2040</v>
+      </c>
+      <c r="D36">
+        <f>_xlfn.FLOOR.MATH((60/(I36*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H36">
+        <v>38475</v>
+      </c>
+      <c r="I36">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>10001</v>
+      </c>
+      <c r="B37">
+        <v>2100</v>
+      </c>
+      <c r="D37">
+        <f>_xlfn.FLOOR.MATH((60/(I37*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H37">
+        <v>39576</v>
+      </c>
+      <c r="I37">
+        <v>60</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>10001</v>
+      </c>
+      <c r="B38">
+        <v>2160</v>
+      </c>
+      <c r="D38">
+        <f>_xlfn.FLOOR.MATH((60/(I38*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H38">
+        <v>40278</v>
+      </c>
+      <c r="I38">
+        <v>60</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>10001</v>
+      </c>
+      <c r="B39">
+        <v>2220</v>
+      </c>
+      <c r="D39">
+        <f>_xlfn.FLOOR.MATH((60/(I39*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H39">
+        <v>40986</v>
+      </c>
+      <c r="I39">
+        <v>60</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>10001</v>
+      </c>
+      <c r="B40">
+        <v>2280</v>
+      </c>
+      <c r="D40">
+        <f>_xlfn.FLOOR.MATH((60/(I40*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H40">
+        <v>41700</v>
+      </c>
+      <c r="I40">
+        <v>60</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>10001</v>
+      </c>
+      <c r="B41">
+        <v>2340</v>
+      </c>
+      <c r="D41">
+        <f>_xlfn.FLOOR.MATH((60/(I41*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H41">
+        <v>42420</v>
+      </c>
+      <c r="I41">
+        <v>60</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>10001</v>
+      </c>
+      <c r="B42">
+        <v>2400</v>
+      </c>
+      <c r="D42">
+        <f>_xlfn.FLOOR.MATH((60/(I42*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H42">
+        <v>43146</v>
+      </c>
+      <c r="I42">
+        <v>60</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>10001</v>
+      </c>
+      <c r="B43">
+        <v>2460</v>
+      </c>
+      <c r="D43">
+        <f>_xlfn.FLOOR.MATH((60/(I43*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H43">
+        <v>43878</v>
+      </c>
+      <c r="I43">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>10001</v>
+      </c>
+      <c r="B44">
+        <v>2520</v>
+      </c>
+      <c r="D44">
+        <f>_xlfn.FLOOR.MATH((60/(I44*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H44">
+        <v>44616</v>
+      </c>
+      <c r="I44">
+        <v>60</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>10001</v>
+      </c>
+      <c r="B45">
+        <v>2580</v>
+      </c>
+      <c r="D45">
+        <f>_xlfn.FLOOR.MATH((60/(I45*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H45">
+        <v>45360</v>
+      </c>
+      <c r="I45">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>10001</v>
+      </c>
+      <c r="B46">
+        <v>2640</v>
+      </c>
+      <c r="D46">
+        <f>_xlfn.FLOOR.MATH((60/(I46*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H46">
+        <v>46110</v>
+      </c>
+      <c r="I46">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>10001</v>
+      </c>
+      <c r="B47">
+        <v>2700</v>
+      </c>
+      <c r="D47">
+        <f>_xlfn.FLOOR.MATH((60/(I47*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H47">
+        <v>46428</v>
+      </c>
+      <c r="I47">
+        <v>60</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>10001</v>
+      </c>
+      <c r="B48">
+        <v>2760</v>
+      </c>
+      <c r="D48">
+        <f>_xlfn.FLOOR.MATH((60/(I48*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H48">
+        <v>47187</v>
+      </c>
+      <c r="I48">
+        <v>60</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>10001</v>
+      </c>
+      <c r="B49">
+        <v>2820</v>
+      </c>
+      <c r="D49">
+        <f>_xlfn.FLOOR.MATH((60/(I49*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H49">
+        <v>47952</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>10001</v>
+      </c>
+      <c r="B50">
+        <v>2880</v>
+      </c>
+      <c r="D50">
+        <f>_xlfn.FLOOR.MATH((60/(I50*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H50">
+        <v>48276</v>
+      </c>
+      <c r="I50">
+        <v>60</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>10001</v>
+      </c>
+      <c r="B51">
+        <v>2940</v>
+      </c>
+      <c r="D51">
+        <f>_xlfn.FLOOR.MATH((60/(I51*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H51">
+        <v>48600</v>
+      </c>
+      <c r="I51">
+        <v>60</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>10001</v>
+      </c>
+      <c r="B52">
+        <v>3000</v>
+      </c>
+      <c r="D52">
+        <f>_xlfn.FLOOR.MATH((60/(I52*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H52">
+        <v>49377</v>
+      </c>
+      <c r="I52">
+        <v>60</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>10001</v>
+      </c>
+      <c r="B53">
+        <v>3060</v>
+      </c>
+      <c r="D53">
+        <f>_xlfn.FLOOR.MATH((60/(I53*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H53">
+        <v>49704</v>
+      </c>
+      <c r="I53">
+        <v>60</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>10001</v>
+      </c>
+      <c r="B54">
+        <v>3120</v>
+      </c>
+      <c r="D54">
+        <f>_xlfn.FLOOR.MATH((60/(I54*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H54">
+        <v>50031</v>
+      </c>
+      <c r="I54">
+        <v>60</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>10001</v>
+      </c>
+      <c r="B55">
+        <v>3180</v>
+      </c>
+      <c r="D55">
+        <f>_xlfn.FLOOR.MATH((60/(I55*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H55">
+        <v>50358</v>
+      </c>
+      <c r="I55">
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>10001</v>
+      </c>
+      <c r="B56">
+        <v>3240</v>
+      </c>
+      <c r="D56">
+        <f>_xlfn.FLOOR.MATH((60/(I56*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H56">
+        <v>50685</v>
+      </c>
+      <c r="I56">
+        <v>60</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>10001</v>
+      </c>
+      <c r="B57">
+        <v>3300</v>
+      </c>
+      <c r="D57">
+        <f>_xlfn.FLOOR.MATH((60/(I57*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H57">
+        <v>51012</v>
+      </c>
+      <c r="I57">
+        <v>60</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>10001</v>
+      </c>
+      <c r="B58">
+        <v>3360</v>
+      </c>
+      <c r="D58">
+        <f>_xlfn.FLOOR.MATH((60/(I58*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H58">
+        <v>51339</v>
+      </c>
+      <c r="I58">
+        <v>60</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>10001</v>
+      </c>
+      <c r="B59">
+        <v>3420</v>
+      </c>
+      <c r="D59">
+        <f>_xlfn.FLOOR.MATH((60/(I59*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H59">
+        <v>51666</v>
+      </c>
+      <c r="I59">
+        <v>60</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>10001</v>
+      </c>
+      <c r="B60">
+        <v>3480</v>
+      </c>
+      <c r="D60">
+        <f>_xlfn.FLOOR.MATH((60/(I60*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H60">
+        <v>51516</v>
+      </c>
+      <c r="I60">
+        <v>60</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>10001</v>
+      </c>
+      <c r="B61">
+        <v>3540</v>
+      </c>
+      <c r="D61">
+        <f>_xlfn.FLOOR.MATH((60/(I61*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H61">
+        <v>51840</v>
+      </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>10001</v>
+      </c>
+      <c r="B62">
+        <v>3600</v>
+      </c>
+      <c r="D62">
+        <f>_xlfn.FLOOR.MATH((60/(I62*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H62">
+        <v>51681</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>10001</v>
+      </c>
+      <c r="B63">
+        <v>3660</v>
+      </c>
+      <c r="D63">
+        <f>_xlfn.FLOOR.MATH((60/(I63*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H63">
+        <v>52002</v>
+      </c>
+      <c r="I63">
+        <v>60</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>10001</v>
+      </c>
+      <c r="B64">
+        <v>3720</v>
+      </c>
+      <c r="D64">
+        <f>_xlfn.FLOOR.MATH((60/(I64*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H64">
+        <v>52134</v>
+      </c>
+      <c r="I64">
+        <v>60</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>10001</v>
+      </c>
+      <c r="B65">
+        <v>3780</v>
+      </c>
+      <c r="D65">
+        <f>_xlfn.FLOOR.MATH((60/(I65*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H65">
+        <v>52452</v>
+      </c>
+      <c r="I65">
+        <v>60</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>10001</v>
+      </c>
+      <c r="B66">
+        <v>3840</v>
+      </c>
+      <c r="D66">
+        <f>_xlfn.FLOOR.MATH((60/(I66*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H66">
+        <v>52575</v>
+      </c>
+      <c r="I66">
+        <v>60</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>10001</v>
+      </c>
+      <c r="B67">
+        <v>3900</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D101" si="2">_xlfn.FLOOR.MATH((60/(I67*3))*1000)</f>
+        <v>333</v>
+      </c>
+      <c r="H67">
+        <v>52692</v>
+      </c>
+      <c r="I67">
+        <v>60</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J101" si="3">_xlfn.FLOOR.MATH(H67/(I67*2))</f>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>10001</v>
+      </c>
+      <c r="B68">
+        <v>3960</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H68">
+        <v>52803</v>
+      </c>
+      <c r="I68">
+        <v>60</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>10001</v>
+      </c>
+      <c r="B69">
+        <v>4020</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H69">
+        <v>52908</v>
+      </c>
+      <c r="I69">
+        <v>60</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>10001</v>
+      </c>
+      <c r="B70">
+        <v>4080</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H70">
+        <v>53007</v>
+      </c>
+      <c r="I70">
+        <v>60</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>10001</v>
+      </c>
+      <c r="B71">
+        <v>4140</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H71">
+        <v>53100</v>
+      </c>
+      <c r="I71">
+        <v>60</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>10001</v>
+      </c>
+      <c r="B72">
+        <v>4200</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H72">
+        <v>53400</v>
+      </c>
+      <c r="I72">
+        <v>60</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>10001</v>
+      </c>
+      <c r="B73">
+        <v>4260</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H73">
+        <v>53700</v>
+      </c>
+      <c r="I73">
+        <v>60</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>10001</v>
+      </c>
+      <c r="B74">
+        <v>4320</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H74">
+        <v>54000</v>
+      </c>
+      <c r="I74">
+        <v>60</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>10001</v>
+      </c>
+      <c r="B75">
+        <v>4380</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H75">
+        <v>54300</v>
+      </c>
+      <c r="I75">
+        <v>60</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>10001</v>
+      </c>
+      <c r="B76">
+        <v>4440</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H76" s="4">
+        <v>54600</v>
+      </c>
+      <c r="I76">
+        <v>60</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>10001</v>
+      </c>
+      <c r="B77">
+        <v>4500</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H77" s="4">
+        <v>54900</v>
+      </c>
+      <c r="I77">
+        <v>60</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="3"/>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>10001</v>
+      </c>
+      <c r="B78">
+        <v>4560</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H78">
+        <v>55200</v>
+      </c>
+      <c r="I78">
+        <v>60</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>10001</v>
+      </c>
+      <c r="B79">
+        <v>4620</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H79">
+        <v>55500</v>
+      </c>
+      <c r="I79">
+        <v>60</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="3"/>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>10001</v>
+      </c>
+      <c r="B80">
+        <v>4680</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H80">
+        <v>55800</v>
+      </c>
+      <c r="I80">
+        <v>60</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>10001</v>
+      </c>
+      <c r="B81">
+        <v>4740</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H81">
+        <v>56100</v>
+      </c>
+      <c r="I81">
+        <v>60</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>10001</v>
+      </c>
+      <c r="B82">
+        <v>4800</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H82">
+        <v>56400</v>
+      </c>
+      <c r="I82">
+        <v>60</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>10001</v>
+      </c>
+      <c r="B83">
+        <v>4860</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H83">
+        <v>56700</v>
+      </c>
+      <c r="I83">
+        <v>60</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>10001</v>
+      </c>
+      <c r="B84">
+        <v>4920</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H84">
+        <v>57000</v>
+      </c>
+      <c r="I84">
+        <v>60</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>10001</v>
+      </c>
+      <c r="B85">
+        <v>4980</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H85">
+        <v>57300</v>
+      </c>
+      <c r="I85">
+        <v>60</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>10001</v>
+      </c>
+      <c r="B86">
+        <v>5040</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H86">
+        <v>57600</v>
+      </c>
+      <c r="I86">
+        <v>60</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>10001</v>
+      </c>
+      <c r="B87">
+        <v>5100</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H87">
+        <v>57900</v>
+      </c>
+      <c r="I87">
+        <v>60</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>10001</v>
+      </c>
+      <c r="B88">
+        <v>5160</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H88">
+        <v>58200</v>
+      </c>
+      <c r="I88">
+        <v>60</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="3"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>10001</v>
+      </c>
+      <c r="B89">
+        <v>5220</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H89">
+        <v>58500</v>
+      </c>
+      <c r="I89">
+        <v>60</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>10001</v>
+      </c>
+      <c r="B90">
+        <v>5280</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H90">
+        <v>58800</v>
+      </c>
+      <c r="I90">
+        <v>60</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>10001</v>
+      </c>
+      <c r="B91">
+        <v>5340</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H91">
+        <v>59100</v>
+      </c>
+      <c r="I91">
+        <v>60</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="3"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>10001</v>
+      </c>
+      <c r="B92">
+        <v>5400</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H92">
+        <v>59400</v>
+      </c>
+      <c r="I92">
+        <v>60</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>10001</v>
+      </c>
+      <c r="B93">
+        <v>5460</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H93">
+        <v>59700</v>
+      </c>
+      <c r="I93">
+        <v>60</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="3"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>10001</v>
+      </c>
+      <c r="B94">
+        <v>5520</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H94">
+        <v>60000</v>
+      </c>
+      <c r="I94">
+        <v>60</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>10001</v>
+      </c>
+      <c r="B95">
+        <v>5580</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H95">
+        <v>60300</v>
+      </c>
+      <c r="I95">
+        <v>60</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>10001</v>
+      </c>
+      <c r="B96">
+        <v>5640</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H96">
+        <v>60600</v>
+      </c>
+      <c r="I96">
+        <v>60</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>10001</v>
+      </c>
+      <c r="B97">
+        <v>5700</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H97">
+        <v>60900</v>
+      </c>
+      <c r="I97">
+        <v>60</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>10001</v>
+      </c>
+      <c r="B98">
+        <v>5760</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H98">
+        <v>61200</v>
+      </c>
+      <c r="I98">
+        <v>60</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>10001</v>
+      </c>
+      <c r="B99">
+        <v>5820</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H99">
+        <v>61500</v>
+      </c>
+      <c r="I99">
+        <v>60</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="3"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>10001</v>
+      </c>
+      <c r="B100">
+        <v>5880</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H100">
+        <v>61800</v>
+      </c>
+      <c r="I100">
+        <v>60</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>10001</v>
+      </c>
+      <c r="B101">
+        <v>5940</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="H101">
+        <v>62100</v>
+      </c>
+      <c r="I101">
+        <v>60</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="3"/>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="规则1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>时间事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>出现方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加基因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,14 +225,14 @@
       <sheetName val="角色"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -523,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,7 +536,6 @@
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="6.625" customWidth="1"/>
     <col min="9" max="9" width="8.125" customWidth="1"/>
     <col min="10" max="11" width="11.625" customWidth="1"/>
@@ -560,6 +563,9 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -607,6 +613,9 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>1003</v>
+      </c>
       <c r="L3" s="1">
         <v>10</v>
       </c>
@@ -676,6 +685,9 @@
       <c r="F6">
         <v>9</v>
       </c>
+      <c r="G6">
+        <v>1003</v>
+      </c>
       <c r="L6" s="1">
         <v>30</v>
       </c>
@@ -913,13 +925,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>10001</v>
+      </c>
+      <c r="B17">
+        <v>900</v>
+      </c>
+      <c r="C17">
+        <v>200011</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>546</v>
+      </c>
+      <c r="G17">
+        <v>1003</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H21">
         <f>[1]玩家!$E$18</f>
         <v>0</v>
@@ -929,13 +967,13 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
@@ -943,7 +981,7 @@
       </c>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N24" s="2">
         <v>640</v>
       </c>
@@ -955,7 +993,7 @@
       </c>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
         <v>5</v>
@@ -963,7 +1001,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
         <v>7</v>
@@ -973,7 +1011,7 @@
       </c>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N27" s="2"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
@@ -981,23 +1019,23 @@
       </c>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N28" s="2"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="O29" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="O30" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="8:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="O31" s="1">
         <f>640/48</f>
         <v>13.333333333333334</v>
@@ -1715,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1742,6 +1780,9 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1847,6 +1888,9 @@
       <c r="F6">
         <v>9</v>
       </c>
+      <c r="G6">
+        <v>1003</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
@@ -2054,8 +2098,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>10004</v>
+      </c>
+      <c r="B17">
+        <v>900</v>
+      </c>
+      <c r="C17">
+        <v>200026</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>1003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,7 +674,7 @@
         <v>240</v>
       </c>
       <c r="C6">
-        <v>200016</v>
+        <v>200044</v>
       </c>
       <c r="D6">
         <v>800</v>
@@ -684,9 +684,6 @@
       </c>
       <c r="F6">
         <v>9</v>
-      </c>
-      <c r="G6">
-        <v>1003</v>
       </c>
       <c r="L6" s="1">
         <v>30</v>
@@ -949,6 +946,46 @@
       </c>
       <c r="L17" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>10001</v>
+      </c>
+      <c r="B18">
+        <v>1020</v>
+      </c>
+      <c r="C18">
+        <v>200045</v>
+      </c>
+      <c r="D18">
+        <v>250</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>10001</v>
+      </c>
+      <c r="B19">
+        <v>1200</v>
+      </c>
+      <c r="C19">
+        <v>200046</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1003</v>
+        <v>2002</v>
       </c>
       <c r="L3" s="1">
         <v>10</v>
@@ -723,7 +723,7 @@
         <v>360</v>
       </c>
       <c r="C8">
-        <v>200015</v>
+        <v>200047</v>
       </c>
       <c r="D8">
         <v>700</v>
@@ -942,7 +942,7 @@
         <v>546</v>
       </c>
       <c r="G17">
-        <v>1003</v>
+        <v>2002</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,7 +605,7 @@
         <v>200003</v>
       </c>
       <c r="D3">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>200004</v>
       </c>
       <c r="D4">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>200012</v>
       </c>
       <c r="D5">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -677,7 +677,7 @@
         <v>200044</v>
       </c>
       <c r="D6">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>200005</v>
       </c>
       <c r="D7">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>200047</v>
       </c>
       <c r="D8">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>200006</v>
       </c>
       <c r="D9">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>200007</v>
       </c>
       <c r="D10">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>200008</v>
       </c>
       <c r="D11">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -818,7 +818,7 @@
         <v>200013</v>
       </c>
       <c r="D12">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -838,7 +838,7 @@
         <v>200009</v>
       </c>
       <c r="D13">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>200010</v>
       </c>
       <c r="D14">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>200011</v>
       </c>
       <c r="D15">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>200014</v>
       </c>
       <c r="D16">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -933,7 +933,7 @@
         <v>200011</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>200045</v>
       </c>
       <c r="D18">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -979,7 +979,7 @@
         <v>200046</v>
       </c>
       <c r="D19">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -989,6 +989,27 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>10001</v>
+      </c>
+      <c r="B20">
+        <v>1260</v>
+      </c>
+      <c r="C20">
+        <v>200011</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>546</v>
+      </c>
+      <c r="G20">
+        <v>2002</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -613,9 +613,6 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>2002</v>
-      </c>
       <c r="L3" s="1">
         <v>10</v>
       </c>
@@ -662,6 +659,9 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>2002</v>
+      </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
@@ -826,6 +826,9 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>2002</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
@@ -895,6 +898,9 @@
         <f>_xlfn.FLOOR.MATH(F14*1.5)</f>
         <v>546</v>
       </c>
+      <c r="G15">
+        <v>2015</v>
+      </c>
       <c r="L15" s="1">
         <v>10</v>
       </c>
@@ -942,7 +948,7 @@
         <v>546</v>
       </c>
       <c r="G17">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -1008,7 +1014,7 @@
         <v>546</v>
       </c>
       <c r="G20">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -217,6 +217,7 @@
     <sheetNames>
       <sheetName val="对象"/>
       <sheetName val="玩家"/>
+      <sheetName val="场景对象"/>
       <sheetName val="Sheet2"/>
       <sheetName val="技能分析"/>
       <sheetName val="buff分析"/>
@@ -233,6 +234,7 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -525,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,7 +601,7 @@
         <v>10001</v>
       </c>
       <c r="B3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>200003</v>
@@ -622,22 +624,19 @@
         <v>10001</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C4">
-        <v>200004</v>
+        <v>200012</v>
       </c>
       <c r="D4">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -645,25 +644,22 @@
         <v>10001</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="C5">
-        <v>200012</v>
+        <v>200004</v>
       </c>
       <c r="D5">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2002</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -671,25 +667,19 @@
         <v>10001</v>
       </c>
       <c r="B6">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>200044</v>
+        <v>200012</v>
       </c>
       <c r="D6">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1">
-        <v>30</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -697,22 +687,19 @@
         <v>10001</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>121</v>
       </c>
       <c r="C7">
-        <v>200005</v>
+        <v>300001</v>
       </c>
       <c r="D7">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>18</v>
-      </c>
-      <c r="L7" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -720,22 +707,25 @@
         <v>10001</v>
       </c>
       <c r="B8">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="C8">
-        <v>200047</v>
+        <v>200012</v>
       </c>
       <c r="D8">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2002</v>
       </c>
       <c r="L8" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -743,23 +733,25 @@
         <v>10001</v>
       </c>
       <c r="B9">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="C9">
-        <v>200006</v>
+        <v>200044</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <f>F8*2</f>
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -767,23 +759,22 @@
         <v>10001</v>
       </c>
       <c r="B10">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="C10">
-        <v>200007</v>
+        <v>200005</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <f>F9*1.5</f>
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -791,20 +782,22 @@
         <v>10001</v>
       </c>
       <c r="B11">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="C11">
-        <v>200008</v>
+        <v>200047</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <f>F10*1.5</f>
-        <v>162</v>
+        <v>36</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -812,22 +805,23 @@
         <v>10001</v>
       </c>
       <c r="B12">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="C12">
-        <v>200013</v>
+        <v>200006</v>
       </c>
       <c r="D12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2002</v>
+        <f>F11*2</f>
+        <v>72</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -835,23 +829,23 @@
         <v>10001</v>
       </c>
       <c r="B13">
-        <v>660</v>
+        <v>480</v>
       </c>
       <c r="C13">
-        <v>200009</v>
+        <v>200007</v>
       </c>
       <c r="D13">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <f>_xlfn.FLOOR.MATH(F11*1.5)</f>
-        <v>243</v>
+        <f>F12*1.5</f>
+        <v>108</v>
       </c>
       <c r="L13" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -859,23 +853,20 @@
         <v>10001</v>
       </c>
       <c r="B14">
-        <v>720</v>
+        <v>540</v>
       </c>
       <c r="C14">
-        <v>200010</v>
+        <v>200008</v>
       </c>
       <c r="D14">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <f>_xlfn.FLOOR.MATH(F13*1.5)</f>
-        <v>364</v>
-      </c>
-      <c r="L14" s="1">
-        <v>10</v>
+        <f>F13*1.5</f>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -883,26 +874,22 @@
         <v>10001</v>
       </c>
       <c r="B15">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="C15">
-        <v>200011</v>
+        <v>200013</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <f>_xlfn.FLOOR.MATH(F14*1.5)</f>
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2015</v>
-      </c>
-      <c r="L15" s="1">
-        <v>10</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -910,22 +897,23 @@
         <v>10001</v>
       </c>
       <c r="B16">
-        <v>840</v>
+        <v>660</v>
       </c>
       <c r="C16">
-        <v>200014</v>
+        <v>200009</v>
       </c>
       <c r="D16">
         <v>200</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <f>_xlfn.FLOOR.MATH(F14*1.5)</f>
+        <v>243</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -933,25 +921,23 @@
         <v>10001</v>
       </c>
       <c r="B17">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="C17">
-        <v>200011</v>
+        <v>200010</v>
       </c>
       <c r="D17">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>546</v>
-      </c>
-      <c r="G17">
-        <v>2015</v>
+        <f>_xlfn.FLOOR.MATH(F16*1.5)</f>
+        <v>364</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -959,19 +945,26 @@
         <v>10001</v>
       </c>
       <c r="B18">
-        <v>1020</v>
+        <v>780</v>
       </c>
       <c r="C18">
-        <v>200045</v>
+        <v>200011</v>
       </c>
       <c r="D18">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <f>_xlfn.FLOOR.MATH(F17*1.5)</f>
+        <v>546</v>
+      </c>
+      <c r="G18">
+        <v>2015</v>
+      </c>
+      <c r="L18" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -979,19 +972,22 @@
         <v>10001</v>
       </c>
       <c r="B19">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="C19">
-        <v>200046</v>
+        <v>200014</v>
       </c>
       <c r="D19">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -999,13 +995,13 @@
         <v>10001</v>
       </c>
       <c r="B20">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="C20">
         <v>200011</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1016,100 +1012,166 @@
       <c r="G20">
         <v>2015</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="2"/>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="H21">
-        <f>[1]玩家!$E$18</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="2"/>
+      <c r="A21">
+        <v>10001</v>
+      </c>
+      <c r="B21">
+        <v>1020</v>
+      </c>
+      <c r="C21">
+        <v>200045</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="N22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="2"/>
+      <c r="A22">
+        <v>10001</v>
+      </c>
+      <c r="B22">
+        <v>1200</v>
+      </c>
+      <c r="C22">
+        <v>200046</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10001</v>
+      </c>
+      <c r="B23">
+        <v>1260</v>
+      </c>
+      <c r="C23">
+        <v>200011</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>546</v>
+      </c>
+      <c r="G23">
+        <v>2015</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="P23" s="3"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="N24" s="2">
-        <v>640</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="3">
-        <v>21</v>
-      </c>
+      <c r="H24">
+        <f>[1]玩家!$E$18</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N25" s="2"/>
-      <c r="O25" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N26" s="2"/>
-      <c r="O26" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="N27" s="2"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3" t="s">
-        <v>9</v>
+      <c r="N27" s="2">
+        <v>640</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="3">
+        <v>21</v>
       </c>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
+      <c r="O28" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="O29" s="1">
+      <c r="N29" s="2"/>
+      <c r="O29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N31" s="2"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="O32" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="O30" s="1">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O33" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="O31" s="1">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O34" s="1">
         <f>640/48</f>
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.15">
-      <c r="H77" s="4"/>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H80" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/share/data/design/地图规则.xlsx
+++ b/share/data/design/地图规则.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,6 +658,9 @@
       <c r="F5">
         <v>6</v>
       </c>
+      <c r="G5">
+        <v>2002</v>
+      </c>
       <c r="L5" s="1">
         <v>8</v>
       </c>
@@ -690,7 +693,7 @@
         <v>121</v>
       </c>
       <c r="C7">
-        <v>300001</v>
+        <v>200044</v>
       </c>
       <c r="D7">
         <v>600</v>
@@ -721,9 +724,6 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>2002</v>
-      </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
@@ -868,6 +868,9 @@
         <f>F13*1.5</f>
         <v>162</v>
       </c>
+      <c r="G14">
+        <v>2002</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -888,9 +891,6 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>2002</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16">
@@ -1001,7 +1001,7 @@
         <v>200011</v>
       </c>
       <c r="D20">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>200045</v>
       </c>
       <c r="D21">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1047,7 +1047,7 @@
         <v>200046</v>
       </c>
       <c r="D22">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1067,7 +1067,7 @@
         <v>200011</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>1</v>
